--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541116</v>
+        <v>111541130</v>
       </c>
       <c r="B26" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,21 +3471,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693830.7552326696</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R26" t="n">
-        <v>6552178.401404973</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3588,21 +3588,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R27" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B26" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,21 +3471,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R26" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541116</v>
+        <v>111541117</v>
       </c>
       <c r="B27" t="n">
         <v>108219</v>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693830.7552326696</v>
+        <v>693809.5100469354</v>
       </c>
       <c r="R27" t="n">
-        <v>6552178.401404973</v>
+        <v>6552200.504896822</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541117</v>
+        <v>111541130</v>
       </c>
       <c r="B28" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,21 +3705,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693809.5100469354</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R28" t="n">
-        <v>6552200.504896822</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541116</v>
+        <v>111541130</v>
       </c>
       <c r="B26" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,21 +3471,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693830.7552326696</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R26" t="n">
-        <v>6552178.401404973</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,21 +3705,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R28" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B26" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,21 +3471,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R26" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541117</v>
+        <v>111541130</v>
       </c>
       <c r="B27" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3588,21 +3588,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693809.5100469354</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R27" t="n">
-        <v>6552200.504896822</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541116</v>
+        <v>111541117</v>
       </c>
       <c r="B28" t="n">
         <v>108219</v>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693830.7552326696</v>
+        <v>693809.5100469354</v>
       </c>
       <c r="R28" t="n">
-        <v>6552178.401404973</v>
+        <v>6552200.504896822</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,7 +3455,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541116</v>
+        <v>111541117</v>
       </c>
       <c r="B26" t="n">
         <v>108219</v>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693830.7552326696</v>
+        <v>693809.5100469354</v>
       </c>
       <c r="R26" t="n">
-        <v>6552178.401404973</v>
+        <v>6552200.504896822</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3588,21 +3588,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R27" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541117</v>
+        <v>111541130</v>
       </c>
       <c r="B28" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,21 +3705,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693809.5100469354</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R28" t="n">
-        <v>6552200.504896822</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111541117</v>
+        <v>111541130</v>
       </c>
       <c r="B26" t="n">
-        <v>108219</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,21 +3471,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219711</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>693809.5100469354</v>
+        <v>693830.8333423812</v>
       </c>
       <c r="R26" t="n">
-        <v>6552200.504896822</v>
+        <v>6552176.860022029</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541116</v>
+        <v>111541117</v>
       </c>
       <c r="B27" t="n">
         <v>108219</v>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693830.7552326696</v>
+        <v>693809.5100469354</v>
       </c>
       <c r="R27" t="n">
-        <v>6552178.401404973</v>
+        <v>6552200.504896822</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541130</v>
+        <v>111541116</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>108219</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,21 +3705,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>219711</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693830.8333423812</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R28" t="n">
-        <v>6552176.860022029</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3572,7 +3572,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111541117</v>
+        <v>111541116</v>
       </c>
       <c r="B27" t="n">
         <v>108219</v>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>693809.5100469354</v>
+        <v>693830.7552326696</v>
       </c>
       <c r="R27" t="n">
-        <v>6552200.504896822</v>
+        <v>6552178.401404973</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111541116</v>
+        <v>111541117</v>
       </c>
       <c r="B28" t="n">
         <v>108219</v>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>693830.7552326696</v>
+        <v>693809.5100469354</v>
       </c>
       <c r="R28" t="n">
-        <v>6552178.401404973</v>
+        <v>6552200.504896822</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3804,6 +3804,133 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112170190</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>694069.5600949975</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6552221.417165034</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170190</v>
+        <v>112170151</v>
       </c>
       <c r="B29" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3818,46 +3818,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>694069.5600949975</v>
+        <v>693854.4396313915</v>
       </c>
       <c r="R29" t="n">
-        <v>6552221.417165034</v>
+        <v>6552209.993284331</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3886,7 +3881,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3896,7 +3891,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Läte nere vid vattnet.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3907,16 +3907,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3930,6 +3920,1543 @@
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112170186</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>694041.3430320423</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6552157.141476791</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Gammal torr tallåga</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal torr tallåga</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112170182</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>693975.7071039275</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6552128.571424671</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112170191</v>
+      </c>
+      <c r="B32" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>694067.4873199712</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6552282.609801962</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med tall och björk.</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112170185</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>694000.1724832607</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6552144.75072563</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Gammal levande tall</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal levande tall</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112170184</v>
+      </c>
+      <c r="B34" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>693995.6768054183</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6552131.644672251</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112170180</v>
+      </c>
+      <c r="B35" t="n">
+        <v>94173</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>693926.5610845154</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6552110.625750537</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112170190</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>694069.5600949975</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6552221.417165034</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112170177</v>
+      </c>
+      <c r="B37" t="n">
+        <v>93158</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2667</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Neckera complanata</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>693885.480175808</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6552076.090278883</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Vid basen av klippvägg.</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112170188</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4717</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>102306</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Granbarkgnagare</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Microbregma emarginatum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>694095.3037405028</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6552131.032424489</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112170178</v>
+      </c>
+      <c r="B39" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>693918.8861541438</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6552119.508870685</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112170187</v>
+      </c>
+      <c r="B40" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>694042.1118079891</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6552162.331671577</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112170183</v>
+      </c>
+      <c r="B41" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Gråberget, Ornö, Srm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>693998.6998497518</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6552112.738413906</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Haninge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Ornö</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Klas Magnusson, Måns Persson, Per Flodby</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170151</v>
+        <v>112170180</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>94173</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3818,25 +3818,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>2590</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3846,13 +3846,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693854.4396313915</v>
+        <v>693927</v>
       </c>
       <c r="R29" t="n">
-        <v>6552209.993284331</v>
+        <v>6552111</v>
       </c>
       <c r="S29" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3891,12 +3891,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:11</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Läte nere vid vattnet.</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3907,6 +3902,11 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3923,10 +3923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170186</v>
+        <v>112170185</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3939,21 +3939,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>694041.3430320423</v>
+        <v>694000</v>
       </c>
       <c r="R30" t="n">
-        <v>6552157.141476791</v>
+        <v>6552145</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Hällmarkstallskog</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>Gammal torr tallåga</t>
+          <t>Gammal levande tall</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal torr tallåga</t>
+          <t>Pinus sylvestris # Gammal levande tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112170182</v>
+        <v>112170177</v>
       </c>
       <c r="B31" t="n">
-        <v>8367</v>
+        <v>93158</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,39 +4076,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106554</v>
+        <v>2667</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>693975.7071039275</v>
+        <v>693885</v>
       </c>
       <c r="R31" t="n">
-        <v>6552128.571424671</v>
+        <v>6552076</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4140,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4150,7 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,24 +4157,9 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Björklåga med det mesta av barken kvar.</t>
-        </is>
-      </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+          <t>Vid basen av klippvägg.</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4197,7 +4177,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112170191</v>
+        <v>112170184</v>
       </c>
       <c r="B32" t="n">
         <v>93388</v>
@@ -4231,20 +4211,16 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>694067.4873199712</v>
+        <v>693996</v>
       </c>
       <c r="R32" t="n">
-        <v>6552282.609801962</v>
+        <v>6552132</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4276,7 +4252,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4286,12 +4262,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4300,13 +4271,12 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Fuktig granskog med tall och björk.</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4324,10 +4294,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112170185</v>
+        <v>112170187</v>
       </c>
       <c r="B33" t="n">
-        <v>89425</v>
+        <v>93388</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4336,38 +4306,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694000.1724832607</v>
+        <v>694042</v>
       </c>
       <c r="R33" t="n">
-        <v>6552144.75072563</v>
+        <v>6552162</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4399,7 +4373,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4409,7 +4383,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4418,33 +4397,9 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Gammal levande tall</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal levande tall</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4461,10 +4416,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112170184</v>
+        <v>112170186</v>
       </c>
       <c r="B34" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4473,25 +4428,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4501,10 +4456,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>693995.6768054183</v>
+        <v>694041</v>
       </c>
       <c r="R34" t="n">
-        <v>6552131.644672251</v>
+        <v>6552157</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4536,7 +4491,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4546,7 +4501,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4560,7 +4515,27 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Gammal torr tallåga</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal torr tallåga</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4578,10 +4553,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112170180</v>
+        <v>112170182</v>
       </c>
       <c r="B35" t="n">
-        <v>94173</v>
+        <v>8367</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4594,34 +4569,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2590</v>
+        <v>106554</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>693926.5610845154</v>
+        <v>693976</v>
       </c>
       <c r="R35" t="n">
-        <v>6552110.625750537</v>
+        <v>6552129</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4653,7 +4633,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4663,7 +4643,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4675,9 +4655,24 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+          <t>Betula # Björklåga med det mesta av barken kvar.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4695,10 +4690,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112170190</v>
+        <v>112170178</v>
       </c>
       <c r="B36" t="n">
-        <v>5113</v>
+        <v>93171</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4711,39 +4706,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>2818</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>694069.5600949975</v>
+        <v>693919</v>
       </c>
       <c r="R36" t="n">
-        <v>6552221.417165034</v>
+        <v>6552120</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4775,7 +4765,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4785,7 +4775,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4796,26 +4786,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4832,10 +4802,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112170177</v>
+        <v>112170183</v>
       </c>
       <c r="B37" t="n">
-        <v>93158</v>
+        <v>93388</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4848,34 +4818,38 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2667</v>
+        <v>2180</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>693885.480175808</v>
+        <v>693999</v>
       </c>
       <c r="R37" t="n">
-        <v>6552076.090278883</v>
+        <v>6552113</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4907,7 +4881,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4917,7 +4891,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4926,12 +4905,13 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Vid basen av klippvägg.</t>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4949,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112170188</v>
+        <v>112170190</v>
       </c>
       <c r="B38" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4965,51 +4945,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>694095.3037405028</v>
+        <v>694070</v>
       </c>
       <c r="R38" t="n">
-        <v>6552131.032424489</v>
+        <v>6552221</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5041,7 +5009,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5051,7 +5019,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5060,7 +5028,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5076,12 +5043,12 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>Äldre grovbarkig levande gran.</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5099,10 +5066,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112170178</v>
+        <v>112170188</v>
       </c>
       <c r="B39" t="n">
-        <v>93171</v>
+        <v>4717</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5115,34 +5082,51 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2818</v>
+        <v>102306</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>693918.8861541438</v>
+        <v>694095</v>
       </c>
       <c r="R39" t="n">
-        <v>6552119.508870685</v>
+        <v>6552131</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5174,7 +5158,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5184,7 +5168,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5193,8 +5177,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5211,10 +5216,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112170187</v>
+        <v>112170151</v>
       </c>
       <c r="B40" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5223,45 +5228,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>694042.1118079891</v>
+        <v>693854</v>
       </c>
       <c r="R40" t="n">
-        <v>6552162.331671577</v>
+        <v>6552210</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5290,7 +5291,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5300,12 +5301,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Stor kudde.</t>
+          <t>Läte nere vid vattnet.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5314,7 +5315,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112170183</v>
+        <v>112170191</v>
       </c>
       <c r="B41" t="n">
         <v>93388</v>
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>693998.6998497518</v>
+        <v>694067</v>
       </c>
       <c r="R41" t="n">
-        <v>6552112.738413906</v>
+        <v>6552283</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Flera stora kuddar i blåbärsris.</t>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Fuktig granskog med tall och björk.</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170180</v>
+        <v>112170178</v>
       </c>
       <c r="B29" t="n">
-        <v>94173</v>
+        <v>93320</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3822,21 +3822,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2590</v>
+        <v>2818</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693927</v>
+        <v>693919</v>
       </c>
       <c r="R29" t="n">
-        <v>6552111</v>
+        <v>6552120</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3902,11 +3902,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3923,10 +3918,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170185</v>
+        <v>112170191</v>
       </c>
       <c r="B30" t="n">
-        <v>89425</v>
+        <v>93539</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3935,38 +3930,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>694000</v>
+        <v>694067</v>
       </c>
       <c r="R30" t="n">
-        <v>6552145</v>
+        <v>6552283</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3998,7 +3997,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4008,7 +4007,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4017,32 +4021,13 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Gammal levande tall</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal levande tall</t>
+          <t>Fuktig granskog med tall och björk.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4060,10 +4045,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112170177</v>
+        <v>112170183</v>
       </c>
       <c r="B31" t="n">
-        <v>93158</v>
+        <v>93539</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,34 +4061,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2667</v>
+        <v>2180</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>693885</v>
+        <v>693999</v>
       </c>
       <c r="R31" t="n">
-        <v>6552076</v>
+        <v>6552113</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4135,7 +4124,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4134,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4154,12 +4148,13 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Vid basen av klippvägg.</t>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4177,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112170184</v>
+        <v>112170190</v>
       </c>
       <c r="B32" t="n">
-        <v>93388</v>
+        <v>5113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4193,34 +4188,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>693996</v>
+        <v>694070</v>
       </c>
       <c r="R32" t="n">
-        <v>6552132</v>
+        <v>6552221</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,9 +4274,24 @@
       <c r="AG32" t="b">
         <v>0</v>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4294,10 +4309,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112170187</v>
+        <v>112170185</v>
       </c>
       <c r="B33" t="n">
-        <v>93388</v>
+        <v>89559</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4306,42 +4321,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694042</v>
+        <v>694000</v>
       </c>
       <c r="R33" t="n">
-        <v>6552162</v>
+        <v>6552145</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4373,7 +4384,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4383,12 +4394,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4397,9 +4403,33 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Gammal levande tall</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal levande tall</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4419,7 +4449,7 @@
         <v>112170186</v>
       </c>
       <c r="B34" t="n">
-        <v>78107</v>
+        <v>78228</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4553,10 +4583,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112170182</v>
+        <v>112170187</v>
       </c>
       <c r="B35" t="n">
-        <v>8367</v>
+        <v>93539</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4569,39 +4599,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106554</v>
+        <v>2180</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>693976</v>
+        <v>694042</v>
       </c>
       <c r="R35" t="n">
-        <v>6552129</v>
+        <v>6552162</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4633,7 +4662,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4643,7 +4672,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4652,28 +4686,9 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Björklåga med det mesta av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med det mesta av barken kvar.</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4690,10 +4705,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112170178</v>
+        <v>112170180</v>
       </c>
       <c r="B36" t="n">
-        <v>93171</v>
+        <v>94326</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4706,21 +4721,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2818</v>
+        <v>2590</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4730,10 +4745,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>693919</v>
+        <v>693927</v>
       </c>
       <c r="R36" t="n">
-        <v>6552120</v>
+        <v>6552111</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4765,7 +4780,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4775,7 +4790,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4786,6 +4801,11 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4802,10 +4822,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112170183</v>
+        <v>112170188</v>
       </c>
       <c r="B37" t="n">
-        <v>93388</v>
+        <v>4717</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4818,27 +4838,40 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2180</v>
+        <v>102306</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4846,10 +4879,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>693999</v>
+        <v>694095</v>
       </c>
       <c r="R37" t="n">
-        <v>6552113</v>
+        <v>6552131</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4881,7 +4914,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4891,12 +4924,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Flera stora kuddar i blåbärsris.</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4909,9 +4937,24 @@
       <c r="AG37" t="b">
         <v>0</v>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4929,10 +4972,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112170190</v>
+        <v>112170151</v>
       </c>
       <c r="B38" t="n">
-        <v>5113</v>
+        <v>56446</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,46 +4984,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>694070</v>
+        <v>693854</v>
       </c>
       <c r="R38" t="n">
-        <v>6552221</v>
+        <v>6552210</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5009,7 +5047,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5019,7 +5057,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Läte nere vid vattnet.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5030,26 +5073,6 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5066,10 +5089,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112170188</v>
+        <v>112170177</v>
       </c>
       <c r="B39" t="n">
-        <v>4717</v>
+        <v>93304</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5082,51 +5105,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>102306</v>
+        <v>2667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>694095</v>
+        <v>693885</v>
       </c>
       <c r="R39" t="n">
-        <v>6552131</v>
+        <v>6552076</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5158,7 +5164,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5168,7 +5174,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5177,28 +5183,12 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+          <t>Vid basen av klippvägg.</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5216,10 +5206,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112170151</v>
+        <v>112170182</v>
       </c>
       <c r="B40" t="n">
-        <v>56414</v>
+        <v>8367</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5228,41 +5218,46 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>693854</v>
+        <v>693976</v>
       </c>
       <c r="R40" t="n">
-        <v>6552210</v>
+        <v>6552129</v>
       </c>
       <c r="S40" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5291,7 +5286,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5301,12 +5296,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:11</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Läte nere vid vattnet.</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5317,6 +5307,26 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5333,10 +5343,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112170191</v>
+        <v>112170184</v>
       </c>
       <c r="B41" t="n">
-        <v>93388</v>
+        <v>93539</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5367,20 +5377,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>694067</v>
+        <v>693996</v>
       </c>
       <c r="R41" t="n">
-        <v>6552283</v>
+        <v>6552132</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5412,7 +5418,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5422,12 +5428,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5436,13 +5437,12 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Fuktig granskog med tall och björk.</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170178</v>
+        <v>112170191</v>
       </c>
       <c r="B29" t="n">
-        <v>93320</v>
+        <v>93553</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3822,34 +3822,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2818</v>
+        <v>2180</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693919</v>
+        <v>694067</v>
       </c>
       <c r="R29" t="n">
-        <v>6552120</v>
+        <v>6552283</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3881,7 +3885,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3891,7 +3895,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3900,8 +3909,14 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med tall och björk.</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3918,10 +3933,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170191</v>
+        <v>112170185</v>
       </c>
       <c r="B30" t="n">
-        <v>93539</v>
+        <v>89573</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3930,42 +3945,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>694067</v>
+        <v>694000</v>
       </c>
       <c r="R30" t="n">
-        <v>6552283</v>
+        <v>6552145</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3997,7 +4008,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4007,12 +4018,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4021,13 +4027,32 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>Fuktig granskog med tall och björk.</t>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Gammal levande tall</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal levande tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4045,10 +4070,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112170183</v>
+        <v>112170186</v>
       </c>
       <c r="B31" t="n">
-        <v>93539</v>
+        <v>78242</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4057,42 +4082,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>693999</v>
+        <v>694041</v>
       </c>
       <c r="R31" t="n">
-        <v>6552113</v>
+        <v>6552157</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4124,7 +4145,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4134,12 +4155,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Flera stora kuddar i blåbärsris.</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4148,13 +4164,32 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Gammal torr tallåga</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal torr tallåga</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4172,10 +4207,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112170190</v>
+        <v>112170151</v>
       </c>
       <c r="B32" t="n">
-        <v>5113</v>
+        <v>56446</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4184,46 +4219,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>694070</v>
+        <v>693854</v>
       </c>
       <c r="R32" t="n">
-        <v>6552221</v>
+        <v>6552210</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4252,7 +4282,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4262,7 +4292,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Läte nere vid vattnet.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4273,26 +4308,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4309,10 +4324,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112170185</v>
+        <v>112170190</v>
       </c>
       <c r="B33" t="n">
-        <v>89559</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4321,38 +4336,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694000</v>
+        <v>694070</v>
       </c>
       <c r="R33" t="n">
-        <v>6552145</v>
+        <v>6552221</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4384,7 +4404,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4394,7 +4414,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4406,29 +4426,24 @@
       <c r="AG33" t="b">
         <v>0</v>
       </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>Gammal levande tall</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal levande tall</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4446,10 +4461,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112170186</v>
+        <v>112170177</v>
       </c>
       <c r="B34" t="n">
-        <v>78228</v>
+        <v>93318</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4458,25 +4473,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>2667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4486,10 +4501,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>694041</v>
+        <v>693885</v>
       </c>
       <c r="R34" t="n">
-        <v>6552157</v>
+        <v>6552076</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4521,7 +4536,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4531,7 +4546,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4543,29 +4558,9 @@
       <c r="AG34" t="b">
         <v>0</v>
       </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Gammal torr tallåga</t>
-        </is>
-      </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal torr tallåga</t>
+          <t>Vid basen av klippvägg.</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4583,10 +4578,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112170187</v>
+        <v>112170182</v>
       </c>
       <c r="B35" t="n">
-        <v>93539</v>
+        <v>8367</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4599,38 +4594,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2180</v>
+        <v>106554</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>694042</v>
+        <v>693976</v>
       </c>
       <c r="R35" t="n">
-        <v>6552162</v>
+        <v>6552129</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4662,7 +4658,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4672,12 +4668,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4686,9 +4677,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4705,10 +4715,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112170180</v>
+        <v>112170183</v>
       </c>
       <c r="B36" t="n">
-        <v>94326</v>
+        <v>93553</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4721,34 +4731,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2590</v>
+        <v>2180</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>693927</v>
+        <v>693999</v>
       </c>
       <c r="R36" t="n">
-        <v>6552111</v>
+        <v>6552113</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4780,7 +4794,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4790,7 +4804,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4799,12 +4818,13 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4822,10 +4842,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112170188</v>
+        <v>112170187</v>
       </c>
       <c r="B37" t="n">
-        <v>4717</v>
+        <v>93553</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4838,40 +4858,27 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102306</v>
+        <v>2180</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4879,10 +4886,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>694095</v>
+        <v>694042</v>
       </c>
       <c r="R37" t="n">
-        <v>6552131</v>
+        <v>6552162</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4914,7 +4921,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4924,7 +4931,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4936,26 +4948,6 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4972,10 +4964,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112170151</v>
+        <v>112170188</v>
       </c>
       <c r="B38" t="n">
-        <v>56446</v>
+        <v>4717</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4984,41 +4976,58 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>102306</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>693854</v>
+        <v>694095</v>
       </c>
       <c r="R38" t="n">
-        <v>6552210</v>
+        <v>6552131</v>
       </c>
       <c r="S38" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5047,7 +5056,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5057,12 +5066,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:11</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Läte nere vid vattnet.</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5071,8 +5075,29 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5089,10 +5114,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112170177</v>
+        <v>112170184</v>
       </c>
       <c r="B39" t="n">
-        <v>93304</v>
+        <v>93553</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5105,21 +5130,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2667</v>
+        <v>2180</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5129,10 +5154,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>693885</v>
+        <v>693996</v>
       </c>
       <c r="R39" t="n">
-        <v>6552076</v>
+        <v>6552132</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5164,7 +5189,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5174,7 +5199,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5186,9 +5211,9 @@
       <c r="AG39" t="b">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Vid basen av klippvägg.</t>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5206,10 +5231,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112170182</v>
+        <v>112170178</v>
       </c>
       <c r="B40" t="n">
-        <v>8367</v>
+        <v>93334</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5222,39 +5247,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>106554</v>
+        <v>2818</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>693976</v>
+        <v>693919</v>
       </c>
       <c r="R40" t="n">
-        <v>6552129</v>
+        <v>6552120</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5286,7 +5306,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5296,7 +5316,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5307,26 +5327,6 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>Björklåga med det mesta av barken kvar.</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Betula # Björklåga med det mesta av barken kvar.</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5343,10 +5343,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112170184</v>
+        <v>112170180</v>
       </c>
       <c r="B41" t="n">
-        <v>93539</v>
+        <v>94340</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5359,21 +5359,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2180</v>
+        <v>2590</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>693996</v>
+        <v>693927</v>
       </c>
       <c r="R41" t="n">
-        <v>6552132</v>
+        <v>6552111</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5440,9 +5440,9 @@
       <c r="AG41" t="b">
         <v>0</v>
       </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170191</v>
+        <v>112170177</v>
       </c>
       <c r="B29" t="n">
-        <v>93553</v>
+        <v>93318</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3822,38 +3822,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2180</v>
+        <v>2667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>694067</v>
+        <v>693885</v>
       </c>
       <c r="R29" t="n">
-        <v>6552283</v>
+        <v>6552076</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3885,7 +3881,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3895,12 +3891,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3909,13 +3900,12 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med tall och björk.</t>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Vid basen av klippvägg.</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3933,10 +3923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170185</v>
+        <v>112170180</v>
       </c>
       <c r="B30" t="n">
-        <v>89573</v>
+        <v>94340</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3945,25 +3935,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>2590</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3973,10 +3963,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>694000</v>
+        <v>693927</v>
       </c>
       <c r="R30" t="n">
-        <v>6552145</v>
+        <v>6552111</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4008,7 +3998,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4018,7 +4008,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4030,29 +4020,9 @@
       <c r="AG30" t="b">
         <v>0</v>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>Gammal levande tall</t>
-        </is>
-      </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal levande tall</t>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4070,10 +4040,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112170186</v>
+        <v>112170190</v>
       </c>
       <c r="B31" t="n">
-        <v>78242</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4082,38 +4052,43 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6453</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>694041</v>
+        <v>694070</v>
       </c>
       <c r="R31" t="n">
-        <v>6552157</v>
+        <v>6552221</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4145,7 +4120,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4155,7 +4130,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4167,29 +4142,24 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
-      </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>Gammal torr tallåga</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal torr tallåga</t>
+          <t>Picea abies # Granlåga</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4324,10 +4294,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112170190</v>
+        <v>112170187</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>93553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4340,39 +4310,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694070</v>
+        <v>694042</v>
       </c>
       <c r="R33" t="n">
-        <v>6552221</v>
+        <v>6552162</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4404,7 +4373,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4414,7 +4383,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4423,28 +4397,9 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4461,10 +4416,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112170177</v>
+        <v>112170191</v>
       </c>
       <c r="B34" t="n">
-        <v>93318</v>
+        <v>93553</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4477,34 +4432,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2667</v>
+        <v>2180</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>693885</v>
+        <v>694067</v>
       </c>
       <c r="R34" t="n">
-        <v>6552076</v>
+        <v>6552283</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4536,7 +4495,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4546,7 +4505,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4555,12 +4519,13 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Vid basen av klippvägg.</t>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med tall och björk.</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4715,10 +4680,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112170183</v>
+        <v>112170185</v>
       </c>
       <c r="B36" t="n">
-        <v>93553</v>
+        <v>89573</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4727,42 +4692,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>693999</v>
+        <v>694000</v>
       </c>
       <c r="R36" t="n">
-        <v>6552113</v>
+        <v>6552145</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4794,7 +4755,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4804,12 +4765,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Flera stora kuddar i blåbärsris.</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4818,13 +4774,32 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
           <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Gammal levande tall</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal levande tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4842,10 +4817,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112170187</v>
+        <v>112170186</v>
       </c>
       <c r="B37" t="n">
-        <v>93553</v>
+        <v>78242</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4854,42 +4829,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>694042</v>
+        <v>694041</v>
       </c>
       <c r="R37" t="n">
-        <v>6552162</v>
+        <v>6552157</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4921,7 +4892,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4931,12 +4902,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4945,9 +4911,33 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Gammal torr tallåga</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Gammal torr tallåga</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4964,10 +4954,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112170188</v>
+        <v>112170184</v>
       </c>
       <c r="B38" t="n">
-        <v>4717</v>
+        <v>93553</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4980,51 +4970,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102306</v>
+        <v>2180</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>694095</v>
+        <v>693996</v>
       </c>
       <c r="R38" t="n">
-        <v>6552131</v>
+        <v>6552132</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5056,7 +5029,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5066,7 +5039,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5075,28 +5048,12 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>Äldre grovbarkig levande gran.</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5114,7 +5071,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112170184</v>
+        <v>112170183</v>
       </c>
       <c r="B39" t="n">
         <v>93553</v>
@@ -5148,16 +5105,20 @@
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>693996</v>
+        <v>693999</v>
       </c>
       <c r="R39" t="n">
-        <v>6552132</v>
+        <v>6552113</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5189,7 +5150,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5199,7 +5160,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5208,6 +5174,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5343,10 +5310,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112170180</v>
+        <v>112170188</v>
       </c>
       <c r="B41" t="n">
-        <v>94340</v>
+        <v>4717</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5359,34 +5326,51 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2590</v>
+        <v>102306</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>693927</v>
+        <v>694095</v>
       </c>
       <c r="R41" t="n">
-        <v>6552111</v>
+        <v>6552131</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5418,7 +5402,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5428,7 +5412,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5437,12 +5421,28 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Äldre grovbarkig levande gran.</t>
+        </is>
+      </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 67868-2021.xlsx
+++ b/artfynd/A 67868-2021.xlsx
@@ -3806,10 +3806,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112170177</v>
+        <v>112170185</v>
       </c>
       <c r="B29" t="n">
-        <v>93318</v>
+        <v>89573</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3818,25 +3818,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2667</v>
+        <v>5442</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>693885</v>
+        <v>694000</v>
       </c>
       <c r="R29" t="n">
-        <v>6552076</v>
+        <v>6552145</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3903,9 +3903,29 @@
       <c r="AG29" t="b">
         <v>0</v>
       </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Gammal levande tall</t>
+        </is>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Vid basen av klippvägg.</t>
+          <t>Pinus sylvestris # Gammal levande tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3923,10 +3943,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112170180</v>
+        <v>112170187</v>
       </c>
       <c r="B30" t="n">
-        <v>94340</v>
+        <v>93553</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3939,34 +3959,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2590</v>
+        <v>2180</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>693927</v>
+        <v>694042</v>
       </c>
       <c r="R30" t="n">
-        <v>6552111</v>
+        <v>6552162</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3998,7 +4022,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4008,7 +4032,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4017,13 +4046,9 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4040,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112170190</v>
+        <v>112170188</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>4717</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4056,39 +4081,51 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>102306</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>694070</v>
+        <v>694095</v>
       </c>
       <c r="R31" t="n">
-        <v>6552221</v>
+        <v>6552131</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4120,7 +4157,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4130,7 +4167,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4139,6 +4176,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4154,12 +4192,12 @@
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Picea abies # Granlåga</t>
+          <t>Picea abies # Äldre grovbarkig levande gran.</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4294,10 +4332,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112170187</v>
+        <v>112170190</v>
       </c>
       <c r="B33" t="n">
-        <v>93553</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4310,38 +4348,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694042</v>
+        <v>694070</v>
       </c>
       <c r="R33" t="n">
-        <v>6552162</v>
+        <v>6552221</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4373,7 +4412,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4383,12 +4422,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4397,9 +4431,28 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4416,7 +4469,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112170191</v>
+        <v>112170184</v>
       </c>
       <c r="B34" t="n">
         <v>93553</v>
@@ -4450,20 +4503,16 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>694067</v>
+        <v>693996</v>
       </c>
       <c r="R34" t="n">
-        <v>6552283</v>
+        <v>6552132</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4495,7 +4544,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4505,12 +4554,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Stor kudde.</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4519,13 +4563,12 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Fuktig granskog med tall och björk.</t>
+          <t>Tallskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4543,10 +4586,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112170182</v>
+        <v>112170180</v>
       </c>
       <c r="B35" t="n">
-        <v>8367</v>
+        <v>94340</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4559,39 +4602,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106554</v>
+        <v>2590</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>693976</v>
+        <v>693927</v>
       </c>
       <c r="R35" t="n">
-        <v>6552129</v>
+        <v>6552111</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4623,7 +4661,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4633,7 +4671,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4645,24 +4683,9 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Björklåga med det mesta av barken kvar.</t>
-        </is>
-      </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+          <t>Kraftigt nedbruten klen låga i sumpskog.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4680,10 +4703,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112170185</v>
+        <v>112170183</v>
       </c>
       <c r="B36" t="n">
-        <v>89573</v>
+        <v>93553</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4692,38 +4715,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>694000</v>
+        <v>693999</v>
       </c>
       <c r="R36" t="n">
-        <v>6552145</v>
+        <v>6552113</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4755,7 +4782,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4765,7 +4792,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Flera stora kuddar i blåbärsris.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4774,32 +4806,13 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
           <t>Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>Gammal levande tall</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Gammal levande tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4817,10 +4830,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112170186</v>
+        <v>112170177</v>
       </c>
       <c r="B37" t="n">
-        <v>78242</v>
+        <v>93318</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4829,25 +4842,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6453</v>
+        <v>2667</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4857,10 +4870,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>694041</v>
+        <v>693885</v>
       </c>
       <c r="R37" t="n">
-        <v>6552157</v>
+        <v>6552076</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4892,7 +4905,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4902,7 +4915,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4914,29 +4927,9 @@
       <c r="AG37" t="b">
         <v>0</v>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>Gammal torr tallåga</t>
-        </is>
-      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # Gammal torr tallåga</t>
+          <t>Vid basen av klippvägg.</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4954,7 +4947,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112170184</v>
+        <v>112170191</v>
       </c>
       <c r="B38" t="n">
         <v>93553</v>
@@ -4988,16 +4981,20 @@
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>693996</v>
+        <v>694067</v>
       </c>
       <c r="R38" t="n">
-        <v>6552132</v>
+        <v>6552283</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5029,7 +5026,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5039,7 +5036,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Stor kudde.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5048,12 +5050,13 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Tallskog</t>
+          <t>Fuktig granskog med tall och björk.</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5071,10 +5074,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112170183</v>
+        <v>112170178</v>
       </c>
       <c r="B39" t="n">
-        <v>93553</v>
+        <v>93334</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5087,38 +5090,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2180</v>
+        <v>2818</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>693999</v>
+        <v>693919</v>
       </c>
       <c r="R39" t="n">
-        <v>6552113</v>
+        <v>6552120</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5150,7 +5149,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5160,12 +5159,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Flera stora kuddar i blåbärsris.</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5174,14 +5168,8 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5198,10 +5186,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112170178</v>
+        <v>112170182</v>
       </c>
       <c r="B40" t="n">
-        <v>93334</v>
+        <v>8367</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5214,34 +5202,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2818</v>
+        <v>106554</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>693919</v>
+        <v>693976</v>
       </c>
       <c r="R40" t="n">
-        <v>6552120</v>
+        <v>6552129</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5273,7 +5266,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5283,7 +5276,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5294,6 +5287,26 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Björklåga med det mesta av barken kvar.</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Betula # Björklåga med det mesta av barken kvar.</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5310,10 +5323,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112170188</v>
+        <v>112170186</v>
       </c>
       <c r="B41" t="n">
-        <v>4717</v>
+        <v>78242</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5322,55 +5335,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>102306</v>
+        <v>6453</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Gråberget, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>694095</v>
+        <v>694041</v>
       </c>
       <c r="R41" t="n">
-        <v>6552131</v>
+        <v>6552157</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5402,7 +5398,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5412,7 +5408,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5421,28 +5417,32 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>Äldre grovbarkig levande gran.</t>
+          <t>Gammal torr tallåga</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Picea abies # Äldre grovbarkig levande gran.</t>
+          <t>Pinus sylvestris # Gammal torr tallåga</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
